--- a/Documentação/Backlog.xlsx
+++ b/Documentação/Backlog.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\Facul\PESQUISA E INOVAÇÃO\ADS-01\Sprint2\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894951AE-8066-4252-BE7B-AE5244700D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E21A04-405A-430C-8E21-BFBA4E5CA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C40FE5B-BD07-468D-8865-71C02FCF0329}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -254,6 +255,32 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,7 +290,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,31 +299,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,15 +321,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>141989</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>542039</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190824</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>590874</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -351,7 +352,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11867264" y="0"/>
+          <a:off x="12267314" y="238125"/>
           <a:ext cx="6144835" cy="3267075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -664,309 +665,309 @@
   <dimension ref="E2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="2.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="12"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="12"/>
-      <c r="F9" s="12">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>7</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>8</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>11</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>12</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
         <v>14</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
-        <v>6</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="G22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
         <v>15</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
-        <v>7</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="G23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
         <v>16</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
-        <v>8</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
-        <v>9</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12">
-        <v>10</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="12"/>
-      <c r="F15" s="12">
-        <v>11</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="10">
-        <v>3</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E17" s="12"/>
-      <c r="F17" s="12">
-        <v>12</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="G25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
+        <v>17</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="10"/>
+      <c r="F27" s="8">
         <v>18</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E18" s="12"/>
-      <c r="F18" s="12">
-        <v>13</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E19" s="12"/>
-      <c r="F19" s="12">
-        <v>14</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E20" s="10">
-        <v>4</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E21" s="12"/>
-      <c r="F21" s="12">
-        <v>15</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="12"/>
-      <c r="F22" s="12">
-        <v>16</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="12"/>
-      <c r="F23" s="12">
-        <v>17</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="10">
-        <v>5</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="14"/>
-      <c r="F25" s="14">
-        <v>18</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="14"/>
-      <c r="F26" s="14">
-        <v>19</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="16"/>
-      <c r="F27" s="14">
-        <v>20</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -977,4 +978,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB665210-5DFF-47A8-8209-5FA877E2E5AF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentação/Backlog.xlsx
+++ b/Documentação/Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\Facul\PESQUISA E INOVAÇÃO\ADS-01\Sprint2\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/831f5f1da6d5c7f7/Área de Trabalho/Harbor Solutions/Sprint02/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E21A04-405A-430C-8E21-BFBA4E5CA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{90E21A04-405A-430C-8E21-BFBA4E5CA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A7BCA1F-FAAB-405D-B578-86331B8EDD66}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C40FE5B-BD07-468D-8865-71C02FCF0329}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{2C40FE5B-BD07-468D-8865-71C02FCF0329}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Projeto - Harbor Solutions</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Pagina decadastro cliente e  login</t>
+  </si>
+  <si>
+    <t>RF</t>
   </si>
 </sst>
 </file>
@@ -664,22 +667,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182CB990-1A60-4F22-9F2B-8B8E19E3CED8}">
   <dimension ref="E2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="2.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="2.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="68.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
@@ -688,7 +691,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
@@ -697,14 +700,14 @@
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E5" s="4">
         <v>1</v>
       </c>
@@ -721,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E6" s="6"/>
       <c r="F6" s="6">
         <v>1</v>
@@ -732,9 +735,11 @@
       <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E7" s="6"/>
       <c r="F7" s="6">
         <v>2</v>
@@ -747,7 +752,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E8" s="4">
         <v>2</v>
       </c>
@@ -758,7 +763,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
       <c r="F9" s="6">
         <v>3</v>
@@ -771,7 +776,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="F10" s="6">
         <v>4</v>
@@ -779,10 +784,12 @@
       <c r="G10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="F11" s="6">
         <v>5</v>
@@ -790,10 +797,12 @@
       <c r="G11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="6">
         <v>6</v>
@@ -801,10 +810,12 @@
       <c r="G12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
       <c r="F13" s="6">
         <v>7</v>
@@ -812,10 +823,12 @@
       <c r="G13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I13" s="8"/>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="6">
         <v>8</v>
@@ -823,10 +836,12 @@
       <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="6">
         <v>9</v>
@@ -834,10 +849,12 @@
       <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" s="4">
         <v>3</v>
       </c>
@@ -848,7 +865,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
       <c r="F17" s="6">
         <v>10</v>
@@ -856,10 +873,12 @@
       <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="6">
         <v>11</v>
@@ -867,10 +886,12 @@
       <c r="G18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" s="6"/>
       <c r="F19" s="6">
         <v>12</v>
@@ -878,10 +899,12 @@
       <c r="G19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" s="4">
         <v>4</v>
       </c>
@@ -892,7 +915,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="6">
         <v>13</v>
@@ -900,10 +923,12 @@
       <c r="G21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
       <c r="F22" s="6">
         <v>14</v>
@@ -911,10 +936,12 @@
       <c r="G22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="6"/>
       <c r="F23" s="6">
         <v>15</v>
@@ -922,10 +949,12 @@
       <c r="G23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" s="4">
         <v>5</v>
       </c>
@@ -936,7 +965,7 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8">
         <v>16</v>
@@ -944,10 +973,12 @@
       <c r="G25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8">
         <v>17</v>
@@ -955,10 +986,12 @@
       <c r="G26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" s="10"/>
       <c r="F27" s="8">
         <v>18</v>
@@ -966,7 +999,9 @@
       <c r="G27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I27" s="10"/>
     </row>
   </sheetData>
@@ -988,7 +1023,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentação/Backlog.xlsx
+++ b/Documentação/Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/831f5f1da6d5c7f7/Área de Trabalho/Harbor Solutions/Sprint02/Documentação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d8695ce2d52cc0/Área de Trabalho/Pedro/PI/Sprint2/Sprint02/Documentação/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{90E21A04-405A-430C-8E21-BFBA4E5CA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A7BCA1F-FAAB-405D-B578-86331B8EDD66}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{90E21A04-405A-430C-8E21-BFBA4E5CA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5F2FBFC-6817-4A93-AF4C-317EFC926D5E}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{2C40FE5B-BD07-468D-8865-71C02FCF0329}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C40FE5B-BD07-468D-8865-71C02FCF0329}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Classificação</t>
   </si>
   <si>
-    <t>Nivel de Importância</t>
-  </si>
-  <si>
     <t>RNF</t>
   </si>
   <si>
@@ -112,17 +109,20 @@
     <t>Pagina quem somos nós</t>
   </si>
   <si>
-    <t>Pagina decadastro cliente e  login</t>
-  </si>
-  <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pontuação de Fibonacci</t>
+  </si>
+  <si>
+    <t>Pagina de cadastro cliente e  login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +149,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +308,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182CB990-1A60-4F22-9F2B-8B8E19E3CED8}">
   <dimension ref="E2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,7 +689,7 @@
     <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -721,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
@@ -730,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="6">
         <v>3</v>
@@ -745,19 +756,21 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E8" s="4">
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -769,12 +782,14 @@
         <v>3</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
@@ -782,12 +797,14 @@
         <v>4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I10" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
@@ -795,12 +812,14 @@
         <v>5</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
@@ -808,12 +827,14 @@
         <v>6</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
@@ -821,12 +842,14 @@
         <v>7</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="8">
         <v>8</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
@@ -834,12 +857,14 @@
         <v>8</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I14" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
@@ -847,19 +872,21 @@
         <v>9</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I15" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" s="4">
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -871,12 +898,14 @@
         <v>10</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
@@ -884,12 +913,14 @@
         <v>11</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" s="6"/>
@@ -897,19 +928,21 @@
         <v>12</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" s="4">
         <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -921,12 +954,14 @@
         <v>13</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I21" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
@@ -934,12 +969,14 @@
         <v>14</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I22" s="6">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="6"/>
@@ -947,19 +984,21 @@
         <v>15</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I23" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" s="4">
         <v>5</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -971,12 +1010,14 @@
         <v>16</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="I25" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
@@ -984,12 +1025,14 @@
         <v>17</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="I26" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" s="10"/>
@@ -997,12 +1040,14 @@
         <v>18</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="I27" s="17">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documentação/Backlog.xlsx
+++ b/Documentação/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\Facul\PESQUISA E INOVAÇÃO\ADS-01\Sprint2\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E21A04-405A-430C-8E21-BFBA4E5CA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA49A01-2EF2-4279-BAF9-80CA88B69378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C40FE5B-BD07-468D-8865-71C02FCF0329}"/>
   </bookViews>
@@ -321,15 +321,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542039</xdr:colOff>
+      <xdr:colOff>361064</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>590874</xdr:colOff>
+      <xdr:colOff>409899</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -352,7 +352,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12267314" y="238125"/>
+          <a:off x="11743439" y="209550"/>
           <a:ext cx="6144835" cy="3267075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -665,17 +665,17 @@
   <dimension ref="E2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="2.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>

--- a/Documentação/Backlog.xlsx
+++ b/Documentação/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d8695ce2d52cc0/Área de Trabalho/Pedro/PI/Sprint2/Sprint02/Documentação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\Sprint2\Sprint02\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{90E21A04-405A-430C-8E21-BFBA4E5CA5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5F2FBFC-6817-4A93-AF4C-317EFC926D5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C3C5E6-666A-4F7B-A4D4-FF16E6188FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C40FE5B-BD07-468D-8865-71C02FCF0329}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Projeto - Harbor Solutions</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Website</t>
   </si>
   <si>
-    <t>Missão/ Valores/ Visão</t>
-  </si>
-  <si>
     <t>dashboard</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>Planilha de Riscos do Projeto</t>
   </si>
   <si>
-    <t>Pagina quem somos nós</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -116,6 +110,9 @@
   </si>
   <si>
     <t>Pagina de cadastro cliente e  login</t>
+  </si>
+  <si>
+    <t>Pagina quem somos nós(Missão/ Valores/ Visão)</t>
   </si>
 </sst>
 </file>
@@ -292,6 +289,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,9 +308,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182CB990-1A60-4F22-9F2B-8B8E19E3CED8}">
-  <dimension ref="E2:I27"/>
+  <dimension ref="E2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -694,22 +691,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -732,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="5:9" x14ac:dyDescent="0.25">
@@ -741,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>5</v>
@@ -756,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>5</v>
@@ -782,10 +779,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I9" s="6">
         <v>13</v>
@@ -797,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I10" s="6">
         <v>21</v>
@@ -812,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I11" s="6">
         <v>21</v>
@@ -827,10 +824,10 @@
         <v>6</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I12" s="6">
         <v>5</v>
@@ -842,13 +839,13 @@
         <v>7</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="8">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="I13" s="6">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
@@ -857,116 +854,116 @@
         <v>8</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="6">
-        <v>21</v>
-      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
       <c r="F17" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I17" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
       <c r="F18" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <v>12</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="6">
-        <v>5</v>
-      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I21" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
       <c r="F22" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>19</v>
@@ -975,77 +972,62 @@
         <v>5</v>
       </c>
       <c r="I22" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>15</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="6">
-        <v>13</v>
-      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E24" s="4">
-        <v>5</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8">
+        <v>16</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="6">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8">
-        <v>16</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I25" s="6">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="8"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="8">
-        <v>17</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="10"/>
-      <c r="F27" s="8">
-        <v>18</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="17">
+        <v>25</v>
+      </c>
+      <c r="I26" s="11">
         <v>21</v>
       </c>
     </row>
